--- a/Metadata/InstrumentMetadata.xlsx
+++ b/Metadata/InstrumentMetadata.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="64">
   <si>
     <t>Site</t>
   </si>
@@ -143,6 +143,75 @@
   <si>
     <t>Cup</t>
   </si>
+  <si>
+    <t>J3311</t>
+  </si>
+  <si>
+    <t>J3301</t>
+  </si>
+  <si>
+    <t>J3306</t>
+  </si>
+  <si>
+    <t>J8607</t>
+  </si>
+  <si>
+    <t>02379</t>
+  </si>
+  <si>
+    <t>02309</t>
+  </si>
+  <si>
+    <t>02380</t>
+  </si>
+  <si>
+    <t>02354</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>InstrumentID</t>
+  </si>
 </sst>
 </file>
 
@@ -209,7 +278,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="585">
+  <cellStyleXfs count="619">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -795,16 +864,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="585">
+  <cellStyles count="619">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1097,6 +1202,23 @@
     <cellStyle name="Followed Hyperlink" xfId="580" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="582" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="618" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1389,6 +1511,23 @@
     <cellStyle name="Hyperlink" xfId="579" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="581" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="617" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1718,12 +1857,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N99"/>
+  <dimension ref="A1:O99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1739,7 +1878,7 @@
     <col min="13" max="13" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1782,8 +1921,11 @@
       <c r="N1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1826,31 +1968,34 @@
       <c r="N2" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C3" s="3">
-        <v>0.499305555555556</v>
+        <v>0.48194444444444401</v>
       </c>
       <c r="D3" s="3">
-        <v>0.77638888888888902</v>
+        <v>0.74722222222222201</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="4">
-        <v>0.72</v>
+        <v>0.32</v>
       </c>
       <c r="H3" s="4">
-        <v>0.72</v>
+        <v>0.33</v>
       </c>
       <c r="I3" s="4">
         <v>0.01</v>
@@ -1859,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>-0.23</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L3" s="5">
+        <v>-0.745</v>
       </c>
       <c r="M3" s="4">
         <v>-30</v>
@@ -1870,8 +2015,11 @@
       <c r="N3" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1888,13 +2036,13 @@
         <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="4">
-        <v>0.99</v>
+        <v>0.72</v>
       </c>
       <c r="H4" s="4">
-        <v>0.99</v>
+        <v>0.72</v>
       </c>
       <c r="I4" s="4">
         <v>0.01</v>
@@ -1906,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4">
-        <v>0.66</v>
+        <v>-0.23</v>
       </c>
       <c r="M4" s="4">
         <v>-30</v>
@@ -1914,31 +2062,34 @@
       <c r="N4" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C5" s="3">
-        <v>0.499305555555556</v>
+        <v>0.48194444444444401</v>
       </c>
       <c r="D5" s="3">
-        <v>0.77638888888888902</v>
+        <v>0.74722222222222201</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G5" s="4">
-        <v>1.28</v>
+        <v>0.79</v>
       </c>
       <c r="H5" s="4">
-        <v>1.28</v>
+        <v>0.78</v>
       </c>
       <c r="I5" s="4">
         <v>0.01</v>
@@ -1947,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="K5" s="4">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="L5" s="4">
-        <v>-0.65</v>
+        <v>-0.66500000000000004</v>
       </c>
       <c r="M5" s="4">
         <v>-30</v>
@@ -1958,8 +2109,11 @@
       <c r="N5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1976,13 +2130,13 @@
         <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" s="4">
-        <v>2.08</v>
+        <v>0.99</v>
       </c>
       <c r="H6" s="4">
-        <v>2.08</v>
+        <v>0.99</v>
       </c>
       <c r="I6" s="4">
         <v>0.01</v>
@@ -2002,31 +2156,34 @@
       <c r="N6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C7" s="3">
-        <v>0.499305555555556</v>
+        <v>0.48194444444444401</v>
       </c>
       <c r="D7" s="3">
-        <v>0.77638888888888902</v>
+        <v>0.74722222222222201</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G7" s="4">
-        <v>2.35</v>
+        <v>0.99</v>
       </c>
       <c r="H7" s="4">
-        <v>2.35</v>
+        <v>0.99</v>
       </c>
       <c r="I7" s="4">
         <v>0.01</v>
@@ -2035,10 +2192,10 @@
         <v>0</v>
       </c>
       <c r="K7" s="4">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L7" s="4">
-        <v>-0.65</v>
+        <v>0.51</v>
       </c>
       <c r="M7" s="4">
         <v>-30</v>
@@ -2046,8 +2203,11 @@
       <c r="N7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2061,28 +2221,28 @@
         <v>0.77638888888888902</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G8" s="4">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="H8" s="4">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="I8" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>14</v>
+        <v>0.01</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
       </c>
       <c r="K8" s="4">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
       <c r="L8" s="4">
-        <v>0</v>
+        <v>-0.65</v>
       </c>
       <c r="M8" s="4">
         <v>-30</v>
@@ -2090,43 +2250,46 @@
       <c r="N8" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C9" s="3">
-        <v>0.499305555555556</v>
+        <v>0.48194444444444401</v>
       </c>
       <c r="D9" s="3">
-        <v>0.77638888888888902</v>
+        <v>0.74722222222222201</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G9" s="4">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="H9" s="4">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="I9" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J9" t="s">
-        <v>16</v>
+        <v>0.01</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
       </c>
       <c r="K9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L9" s="5">
+        <v>-0.745</v>
       </c>
       <c r="M9" s="4">
         <v>-30</v>
@@ -2134,8 +2297,11 @@
       <c r="N9" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2143,22 +2309,22 @@
         <v>42086</v>
       </c>
       <c r="C10" s="3">
-        <v>0.4993055555555555</v>
+        <v>0.499305555555556</v>
       </c>
       <c r="D10" s="3">
-        <v>0.77638888888888891</v>
+        <v>0.77638888888888902</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="H10">
-        <v>0.44500000000000001</v>
+        <v>29</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2.08</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2.08</v>
       </c>
       <c r="I10" s="4">
         <v>0.01</v>
@@ -2170,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4">
-        <v>0.93</v>
+        <v>0.66</v>
       </c>
       <c r="M10" s="4">
         <v>-30</v>
@@ -2178,31 +2344,34 @@
       <c r="N10" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C11" s="3">
-        <v>0.4993055555555555</v>
+        <v>0.48194444444444401</v>
       </c>
       <c r="D11" s="3">
-        <v>0.77638888888888891</v>
+        <v>0.74722222222222201</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11">
-        <v>0.995</v>
-      </c>
-      <c r="H11">
-        <v>0.995</v>
+        <v>29</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2.08</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2.0699999999999998</v>
       </c>
       <c r="I11" s="4">
         <v>0.01</v>
@@ -2211,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="K11" s="4">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L11" s="4">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="M11" s="4">
         <v>-30</v>
@@ -2222,8 +2391,11 @@
       <c r="N11" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -2231,22 +2403,22 @@
         <v>42086</v>
       </c>
       <c r="C12" s="3">
-        <v>0.4993055555555555</v>
+        <v>0.499305555555556</v>
       </c>
       <c r="D12" s="3">
-        <v>0.77638888888888891</v>
+        <v>0.77638888888888902</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12">
-        <v>1.7949999999999999</v>
-      </c>
-      <c r="H12">
-        <v>1.7949999999999999</v>
+        <v>30</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2.35</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2.35</v>
       </c>
       <c r="I12" s="4">
         <v>0.01</v>
@@ -2258,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4">
-        <v>0</v>
+        <v>-0.65</v>
       </c>
       <c r="M12" s="4">
         <v>-30</v>
@@ -2266,31 +2438,34 @@
       <c r="N12" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C13" s="3">
-        <v>0.4993055555555555</v>
+        <v>0.48194444444444401</v>
       </c>
       <c r="D13" s="3">
-        <v>0.77638888888888891</v>
+        <v>0.74722222222222201</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13">
-        <v>2.7450000000000001</v>
-      </c>
-      <c r="H13">
-        <v>2.7450000000000001</v>
+        <v>30</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2.42</v>
       </c>
       <c r="I13" s="4">
         <v>0.01</v>
@@ -2299,19 +2474,22 @@
         <v>0</v>
       </c>
       <c r="K13" s="4">
-        <v>0</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L13" s="5">
+        <v>-0.745</v>
       </c>
       <c r="M13" s="4">
         <v>-30</v>
       </c>
       <c r="N13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -2325,10 +2503,10 @@
         <v>0.77638888888888902</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
@@ -2337,13 +2515,13 @@
         <v>0</v>
       </c>
       <c r="I14" s="4">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="K14" s="4">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="L14" s="4">
         <v>0</v>
@@ -2354,52 +2532,58 @@
       <c r="N14" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>14020114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C15" s="3">
-        <v>0.51944444444444449</v>
+        <v>0.48194444444444445</v>
       </c>
       <c r="D15" s="3">
-        <v>0.56111111111111112</v>
+        <v>0.74722222222222223</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G15" s="4">
-        <v>-0.38</v>
+        <v>0</v>
       </c>
       <c r="H15" s="4">
-        <v>-0.38</v>
+        <v>0</v>
       </c>
       <c r="I15" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>16</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>14</v>
       </c>
       <c r="K15" s="4">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="L15" s="4">
-        <v>-5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="M15" s="4">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="N15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>14020114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -2407,34 +2591,34 @@
         <v>42086</v>
       </c>
       <c r="C16" s="3">
-        <v>0.51944444444444449</v>
+        <v>0.499305555555556</v>
       </c>
       <c r="D16" s="3">
-        <v>0.56111111111111112</v>
+        <v>0.77638888888888902</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G16" s="4">
-        <v>-0.375</v>
+        <v>0</v>
       </c>
       <c r="H16" s="4">
-        <v>-0.375</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J16" s="4" t="s">
+        <v>1E-3</v>
+      </c>
+      <c r="J16" t="s">
         <v>16</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
       </c>
       <c r="L16" s="4">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="M16" s="4">
         <v>-30</v>
@@ -2442,52 +2626,58 @@
       <c r="N16" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>13390344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C17" s="3">
-        <v>0.51944444444444404</v>
+        <v>0.48194444444444401</v>
       </c>
       <c r="D17" s="3">
-        <v>0.56111111111111101</v>
+        <v>0.74722222222222201</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G17" s="4">
-        <v>-0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="H17" s="4">
-        <v>-0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="I17" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J17" s="4" t="s">
+        <v>1E-3</v>
+      </c>
+      <c r="J17" t="s">
         <v>16</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
       </c>
       <c r="L17" s="4">
-        <v>-0.22500000000000001</v>
+        <v>0</v>
       </c>
       <c r="M17" s="4">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="N17" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>13390344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -2495,34 +2685,34 @@
         <v>42086</v>
       </c>
       <c r="C18" s="3">
-        <v>0.51944444444444404</v>
+        <v>0.4993055555555555</v>
       </c>
       <c r="D18" s="3">
-        <v>0.56111111111111101</v>
+        <v>0.77638888888888891</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="4">
-        <v>-0.34499999999999997</v>
-      </c>
-      <c r="H18" s="4">
-        <v>-0.34499999999999997</v>
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="H18">
+        <v>0.44500000000000001</v>
       </c>
       <c r="I18" s="4">
         <v>0.01</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>16</v>
+      <c r="J18" s="4">
+        <v>0</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
       </c>
       <c r="L18" s="4">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="M18" s="4">
         <v>-30</v>
@@ -2530,43 +2720,46 @@
       <c r="N18" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C19" s="3">
-        <v>0.51944444444444404</v>
+        <v>0.48194444444444445</v>
       </c>
       <c r="D19" s="3">
-        <v>0.56111111111111101</v>
+        <v>0.74722222222222223</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="4">
-        <v>-0.31</v>
-      </c>
-      <c r="H19" s="4">
-        <v>-0.31</v>
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="H19">
+        <v>0.435</v>
       </c>
       <c r="I19" s="4">
         <v>0.01</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>16</v>
+      <c r="J19" s="4">
+        <v>0</v>
       </c>
       <c r="K19" s="4">
-        <v>0</v>
-      </c>
-      <c r="L19" s="4">
-        <v>-0.28499999999999998</v>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0.78</v>
       </c>
       <c r="M19" s="4">
         <v>-30</v>
@@ -2574,8 +2767,11 @@
       <c r="N19" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2583,34 +2779,34 @@
         <v>42086</v>
       </c>
       <c r="C20" s="3">
-        <v>0.51944444444444404</v>
+        <v>0.4993055555555555</v>
       </c>
       <c r="D20" s="3">
-        <v>0.56111111111111101</v>
+        <v>0.77638888888888891</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="4">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="H20" s="4">
-        <v>-0.28000000000000003</v>
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>0.995</v>
+      </c>
+      <c r="H20">
+        <v>0.995</v>
       </c>
       <c r="I20" s="4">
         <v>0.01</v>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>16</v>
+      <c r="J20" s="4">
+        <v>0</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
       </c>
       <c r="L20" s="4">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="M20" s="4">
         <v>-30</v>
@@ -2618,43 +2814,46 @@
       <c r="N20" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C21" s="3">
-        <v>0.51944444444444404</v>
+        <v>0.48194444444444445</v>
       </c>
       <c r="D21" s="3">
-        <v>0.56111111111111101</v>
+        <v>0.74722222222222223</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="4">
-        <v>-0.22</v>
-      </c>
-      <c r="H21" s="4">
-        <v>-0.22</v>
+        <v>11</v>
+      </c>
+      <c r="G21">
+        <v>0.995</v>
+      </c>
+      <c r="H21">
+        <v>1.0049999999999999</v>
       </c>
       <c r="I21" s="4">
         <v>0.01</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>16</v>
+      <c r="J21" s="4">
+        <v>0</v>
       </c>
       <c r="K21" s="4">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L21" s="4">
-        <v>-0.115</v>
+        <v>-0.15</v>
       </c>
       <c r="M21" s="4">
         <v>-30</v>
@@ -2662,8 +2861,11 @@
       <c r="N21" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2671,34 +2873,34 @@
         <v>42086</v>
       </c>
       <c r="C22" s="3">
-        <v>0.51944444444444404</v>
+        <v>0.4993055555555555</v>
       </c>
       <c r="D22" s="3">
-        <v>0.56111111111111101</v>
+        <v>0.77638888888888891</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="4">
-        <v>-0.15</v>
-      </c>
-      <c r="H22" s="4">
-        <v>-0.15</v>
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>1.7949999999999999</v>
+      </c>
+      <c r="H22">
+        <v>1.7949999999999999</v>
       </c>
       <c r="I22" s="4">
         <v>0.01</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>16</v>
+      <c r="J22" s="4">
+        <v>0</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
       </c>
       <c r="L22" s="4">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M22" s="4">
         <v>-30</v>
@@ -2706,52 +2908,58 @@
       <c r="N22" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C23" s="3">
-        <v>0.5708333333333333</v>
+        <v>0.48194444444444445</v>
       </c>
       <c r="D23" s="3">
-        <v>0.6020833333333333</v>
+        <v>0.74722222222222223</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="4">
-        <v>-0.38</v>
-      </c>
-      <c r="H23" s="4">
-        <v>-0.38</v>
+        <v>12</v>
+      </c>
+      <c r="G23">
+        <v>1.7849999999999999</v>
+      </c>
+      <c r="H23">
+        <v>1.7949999999999999</v>
       </c>
       <c r="I23" s="4">
         <v>0.01</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>16</v>
+      <c r="J23" s="4">
+        <v>0</v>
       </c>
       <c r="K23" s="4">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L23" s="4">
-        <v>-5.5E-2</v>
+        <v>-0.15</v>
       </c>
       <c r="M23" s="4">
         <v>-30</v>
       </c>
       <c r="N23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -2759,78 +2967,81 @@
         <v>42086</v>
       </c>
       <c r="C24" s="3">
-        <v>0.5708333333333333</v>
+        <v>0.4993055555555555</v>
       </c>
       <c r="D24" s="3">
-        <v>0.6020833333333333</v>
+        <v>0.77638888888888891</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="4">
-        <v>-0.375</v>
-      </c>
-      <c r="H24" s="4">
-        <v>-0.375</v>
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>2.7450000000000001</v>
+      </c>
+      <c r="H24">
+        <v>2.7450000000000001</v>
       </c>
       <c r="I24" s="4">
         <v>0.01</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>16</v>
+      <c r="J24" s="4">
+        <v>0</v>
       </c>
       <c r="K24" s="4">
         <v>0</v>
       </c>
       <c r="L24" s="4">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="M24" s="4">
         <v>-30</v>
       </c>
       <c r="N24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C25" s="3">
-        <v>0.57083333333333297</v>
+        <v>0.48194444444444445</v>
       </c>
       <c r="D25" s="3">
-        <v>0.60208333333333297</v>
+        <v>0.74722222222222223</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="4">
-        <v>-0.36499999999999999</v>
-      </c>
-      <c r="H25" s="4">
-        <v>-0.36499999999999999</v>
+        <v>13</v>
+      </c>
+      <c r="G25">
+        <v>2.8050000000000002</v>
+      </c>
+      <c r="H25">
+        <v>2.8149999999999999</v>
       </c>
       <c r="I25" s="4">
         <v>0.01</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>16</v>
+      <c r="J25" s="4">
+        <v>0</v>
       </c>
       <c r="K25" s="4">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L25" s="4">
-        <v>-0.22500000000000001</v>
+        <v>-0.15</v>
       </c>
       <c r="M25" s="4">
         <v>-30</v>
@@ -2838,8 +3049,11 @@
       <c r="N25" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -2847,22 +3061,22 @@
         <v>42086</v>
       </c>
       <c r="C26" s="3">
-        <v>0.57083333333333297</v>
+        <v>0.51944444444444449</v>
       </c>
       <c r="D26" s="3">
-        <v>0.60208333333333297</v>
+        <v>0.56111111111111112</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G26" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.38</v>
       </c>
       <c r="H26" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.38</v>
       </c>
       <c r="I26" s="4">
         <v>0.01</v>
@@ -2874,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4">
-        <v>0.09</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="M26" s="4">
         <v>-30</v>
@@ -2882,8 +3096,11 @@
       <c r="N26" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -2891,22 +3108,22 @@
         <v>42086</v>
       </c>
       <c r="C27" s="3">
-        <v>0.57083333333333297</v>
+        <v>0.5708333333333333</v>
       </c>
       <c r="D27" s="3">
-        <v>0.60208333333333297</v>
+        <v>0.6020833333333333</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G27" s="4">
-        <v>-0.31</v>
+        <v>-0.38</v>
       </c>
       <c r="H27" s="4">
-        <v>-0.31</v>
+        <v>-0.38</v>
       </c>
       <c r="I27" s="4">
         <v>0.01</v>
@@ -2918,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4">
-        <v>-0.28499999999999998</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="M27" s="4">
         <v>-30</v>
@@ -2926,8 +3143,11 @@
       <c r="N27" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -2935,22 +3155,22 @@
         <v>42086</v>
       </c>
       <c r="C28" s="3">
-        <v>0.57083333333333297</v>
+        <v>0.61944444444444446</v>
       </c>
       <c r="D28" s="3">
-        <v>0.60208333333333297</v>
+        <v>0.66111111111111109</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G28" s="4">
-        <v>-0.28000000000000003</v>
+        <v>-0.38</v>
       </c>
       <c r="H28" s="4">
-        <v>-0.28000000000000003</v>
+        <v>-0.38</v>
       </c>
       <c r="I28" s="4">
         <v>0.01</v>
@@ -2962,16 +3182,19 @@
         <v>0</v>
       </c>
       <c r="L28" s="4">
-        <v>0.31</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="M28" s="4">
         <v>-30</v>
       </c>
       <c r="N28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2979,22 +3202,22 @@
         <v>42086</v>
       </c>
       <c r="C29" s="3">
-        <v>0.57083333333333297</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="D29" s="3">
-        <v>0.60208333333333297</v>
+        <v>0.71875</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G29" s="4">
-        <v>-0.22</v>
+        <v>-0.38</v>
       </c>
       <c r="H29" s="4">
-        <v>-0.22</v>
+        <v>-0.38</v>
       </c>
       <c r="I29" s="4">
         <v>0.01</v>
@@ -3006,16 +3229,19 @@
         <v>0</v>
       </c>
       <c r="L29" s="4">
-        <v>-0.115</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="M29" s="4">
         <v>-30</v>
       </c>
       <c r="N29" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -3023,22 +3249,22 @@
         <v>42086</v>
       </c>
       <c r="C30" s="3">
-        <v>0.57083333333333297</v>
+        <v>0.7284722222222223</v>
       </c>
       <c r="D30" s="3">
-        <v>0.60208333333333297</v>
+        <v>0.77013888888888893</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G30" s="4">
-        <v>-0.15</v>
+        <v>-0.38</v>
       </c>
       <c r="H30" s="4">
-        <v>-0.15</v>
+        <v>-0.38</v>
       </c>
       <c r="I30" s="4">
         <v>0.01</v>
@@ -3050,27 +3276,30 @@
         <v>0</v>
       </c>
       <c r="L30" s="4">
-        <v>0.14000000000000001</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="M30" s="4">
         <v>-30</v>
       </c>
       <c r="N30" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C31" s="3">
-        <v>0.61944444444444446</v>
+        <v>0.56319444444444444</v>
       </c>
       <c r="D31" s="3">
-        <v>0.66111111111111109</v>
+        <v>0.60486111111111118</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>38</v>
@@ -3094,39 +3323,42 @@
         <v>0</v>
       </c>
       <c r="L31" s="4">
-        <v>-5.5E-2</v>
-      </c>
-      <c r="M31" s="4">
-        <v>-30</v>
+        <v>-0.04</v>
+      </c>
+      <c r="M31" s="5">
+        <v>0</v>
       </c>
       <c r="N31" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C32" s="3">
-        <v>0.61944444444444446</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="D32" s="3">
-        <v>0.66111111111111109</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G32" s="4">
-        <v>-0.375</v>
+        <v>-0.38</v>
       </c>
       <c r="H32" s="4">
-        <v>-0.375</v>
+        <v>-0.38</v>
       </c>
       <c r="I32" s="4">
         <v>0.01</v>
@@ -3138,39 +3370,42 @@
         <v>0</v>
       </c>
       <c r="L32" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="M32" s="4">
-        <v>-30</v>
+        <v>-0.04</v>
+      </c>
+      <c r="M32" s="5">
+        <v>0</v>
       </c>
       <c r="N32" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C33" s="3">
-        <v>0.61944444444444446</v>
+        <v>0.65902777777777777</v>
       </c>
       <c r="D33" s="3">
-        <v>0.66111111111111109</v>
+        <v>0.69027777777777777</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G33" s="4">
-        <v>-0.36499999999999999</v>
+        <v>-0.38</v>
       </c>
       <c r="H33" s="4">
-        <v>-0.36499999999999999</v>
+        <v>-0.38</v>
       </c>
       <c r="I33" s="4">
         <v>0.01</v>
@@ -3182,39 +3417,42 @@
         <v>0</v>
       </c>
       <c r="L33" s="4">
-        <v>-0.22500000000000001</v>
-      </c>
-      <c r="M33" s="4">
-        <v>-30</v>
+        <v>-0.04</v>
+      </c>
+      <c r="M33" s="5">
+        <v>0</v>
       </c>
       <c r="N33" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C34" s="3">
-        <v>0.61944444444444446</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="D34" s="3">
-        <v>0.66111111111111109</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G34" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.38</v>
       </c>
       <c r="H34" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.38</v>
       </c>
       <c r="I34" s="4">
         <v>0.01</v>
@@ -3226,16 +3464,19 @@
         <v>0</v>
       </c>
       <c r="L34" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="M34" s="4">
-        <v>-30</v>
+        <v>-0.04</v>
+      </c>
+      <c r="M34" s="5">
+        <v>0</v>
       </c>
       <c r="N34" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -3243,22 +3484,22 @@
         <v>42086</v>
       </c>
       <c r="C35" s="3">
-        <v>0.61944444444444446</v>
+        <v>0.51944444444444449</v>
       </c>
       <c r="D35" s="3">
-        <v>0.66111111111111109</v>
+        <v>0.56111111111111112</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G35" s="4">
-        <v>-0.31</v>
+        <v>-0.375</v>
       </c>
       <c r="H35" s="4">
-        <v>-0.31</v>
+        <v>-0.375</v>
       </c>
       <c r="I35" s="4">
         <v>0.01</v>
@@ -3270,16 +3511,19 @@
         <v>0</v>
       </c>
       <c r="L35" s="4">
-        <v>-0.28499999999999998</v>
+        <v>0.26</v>
       </c>
       <c r="M35" s="4">
         <v>-30</v>
       </c>
       <c r="N35" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -3287,22 +3531,22 @@
         <v>42086</v>
       </c>
       <c r="C36" s="3">
-        <v>0.61944444444444446</v>
+        <v>0.5708333333333333</v>
       </c>
       <c r="D36" s="3">
-        <v>0.66111111111111109</v>
+        <v>0.6020833333333333</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G36" s="4">
-        <v>-0.28000000000000003</v>
+        <v>-0.375</v>
       </c>
       <c r="H36" s="4">
-        <v>-0.28000000000000003</v>
+        <v>-0.375</v>
       </c>
       <c r="I36" s="4">
         <v>0.01</v>
@@ -3314,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="4">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="M36" s="4">
         <v>-30</v>
@@ -3322,8 +3566,11 @@
       <c r="N36" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -3340,13 +3587,13 @@
         <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G37" s="4">
-        <v>-0.22</v>
+        <v>-0.375</v>
       </c>
       <c r="H37" s="4">
-        <v>-0.22</v>
+        <v>-0.375</v>
       </c>
       <c r="I37" s="4">
         <v>0.01</v>
@@ -3358,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="4">
-        <v>-0.115</v>
+        <v>0.26</v>
       </c>
       <c r="M37" s="4">
         <v>-30</v>
@@ -3366,8 +3613,11 @@
       <c r="N37" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="O37" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -3375,22 +3625,22 @@
         <v>42086</v>
       </c>
       <c r="C38" s="3">
-        <v>0.61944444444444446</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="D38" s="3">
-        <v>0.66111111111111109</v>
+        <v>0.71875</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G38" s="4">
-        <v>-0.15</v>
+        <v>-0.375</v>
       </c>
       <c r="H38" s="4">
-        <v>-0.15</v>
+        <v>-0.375</v>
       </c>
       <c r="I38" s="4">
         <v>0.01</v>
@@ -3402,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="M38" s="4">
         <v>-30</v>
@@ -3410,8 +3660,11 @@
       <c r="N38" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="O38" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -3419,22 +3672,22 @@
         <v>42086</v>
       </c>
       <c r="C39" s="3">
-        <v>0.67708333333333337</v>
+        <v>0.7284722222222223</v>
       </c>
       <c r="D39" s="3">
-        <v>0.71875</v>
+        <v>0.77013888888888893</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G39" s="4">
-        <v>-0.38</v>
+        <v>-0.375</v>
       </c>
       <c r="H39" s="4">
-        <v>-0.38</v>
+        <v>-0.375</v>
       </c>
       <c r="I39" s="4">
         <v>0.01</v>
@@ -3446,27 +3699,30 @@
         <v>0</v>
       </c>
       <c r="L39" s="4">
-        <v>-5.5E-2</v>
+        <v>0.26</v>
       </c>
       <c r="M39" s="4">
         <v>-30</v>
       </c>
       <c r="N39" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C40" s="3">
-        <v>0.67708333333333337</v>
+        <v>0.56319444444444444</v>
       </c>
       <c r="D40" s="3">
-        <v>0.71875</v>
+        <v>0.60486111111111118</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>38</v>
@@ -3492,37 +3748,40 @@
       <c r="L40" s="4">
         <v>0.26</v>
       </c>
-      <c r="M40" s="4">
-        <v>-30</v>
+      <c r="M40" s="5">
+        <v>0</v>
       </c>
       <c r="N40" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="O40" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>6</v>
       </c>
       <c r="B41" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C41" s="3">
-        <v>0.67708333333333304</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="D41" s="3">
-        <v>0.71875</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G41" s="4">
-        <v>-0.36499999999999999</v>
+        <v>-0.375</v>
       </c>
       <c r="H41" s="4">
-        <v>-0.36499999999999999</v>
+        <v>-0.375</v>
       </c>
       <c r="I41" s="4">
         <v>0.01</v>
@@ -3534,39 +3793,42 @@
         <v>0</v>
       </c>
       <c r="L41" s="4">
-        <v>-0.22500000000000001</v>
-      </c>
-      <c r="M41" s="4">
-        <v>-30</v>
+        <v>0.26</v>
+      </c>
+      <c r="M41" s="5">
+        <v>0</v>
       </c>
       <c r="N41" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>6</v>
       </c>
       <c r="B42" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C42" s="3">
-        <v>0.67708333333333304</v>
+        <v>0.65902777777777777</v>
       </c>
       <c r="D42" s="3">
-        <v>0.71875</v>
+        <v>0.69027777777777777</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G42" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.375</v>
       </c>
       <c r="H42" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.375</v>
       </c>
       <c r="I42" s="4">
         <v>0.01</v>
@@ -3578,39 +3840,42 @@
         <v>0</v>
       </c>
       <c r="L42" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="M42" s="4">
-        <v>-30</v>
+        <v>0.26</v>
+      </c>
+      <c r="M42" s="5">
+        <v>0</v>
       </c>
       <c r="N42" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="O42" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C43" s="3">
-        <v>0.67708333333333304</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="D43" s="3">
-        <v>0.71875</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G43" s="4">
-        <v>-0.31</v>
+        <v>-0.375</v>
       </c>
       <c r="H43" s="4">
-        <v>-0.31</v>
+        <v>-0.375</v>
       </c>
       <c r="I43" s="4">
         <v>0.01</v>
@@ -3622,16 +3887,19 @@
         <v>0</v>
       </c>
       <c r="L43" s="4">
-        <v>-0.28499999999999998</v>
-      </c>
-      <c r="M43" s="4">
-        <v>-30</v>
+        <v>0.26</v>
+      </c>
+      <c r="M43" s="5">
+        <v>0</v>
       </c>
       <c r="N43" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -3639,22 +3907,22 @@
         <v>42086</v>
       </c>
       <c r="C44" s="3">
-        <v>0.67708333333333304</v>
+        <v>0.51944444444444404</v>
       </c>
       <c r="D44" s="3">
-        <v>0.71875</v>
+        <v>0.56111111111111101</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G44" s="4">
-        <v>-0.28000000000000003</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="H44" s="4">
-        <v>-0.28000000000000003</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="I44" s="4">
         <v>0.01</v>
@@ -3666,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="4">
-        <v>0.31</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="M44" s="4">
         <v>-30</v>
@@ -3674,8 +3942,11 @@
       <c r="N44" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:14">
+      <c r="O44" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -3683,22 +3954,22 @@
         <v>42086</v>
       </c>
       <c r="C45" s="3">
-        <v>0.67708333333333304</v>
+        <v>0.57083333333333297</v>
       </c>
       <c r="D45" s="3">
-        <v>0.71875</v>
+        <v>0.60208333333333297</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G45" s="4">
-        <v>-0.22</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="H45" s="4">
-        <v>-0.22</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="I45" s="4">
         <v>0.01</v>
@@ -3710,16 +3981,19 @@
         <v>0</v>
       </c>
       <c r="L45" s="4">
-        <v>-0.115</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="M45" s="4">
         <v>-30</v>
       </c>
       <c r="N45" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -3727,22 +4001,22 @@
         <v>42086</v>
       </c>
       <c r="C46" s="3">
-        <v>0.67708333333333304</v>
+        <v>0.61944444444444446</v>
       </c>
       <c r="D46" s="3">
-        <v>0.71875</v>
+        <v>0.66111111111111109</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F46" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G46" s="4">
-        <v>-0.15</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="H46" s="4">
-        <v>-0.15</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="I46" s="4">
         <v>0.01</v>
@@ -3754,16 +4028,19 @@
         <v>0</v>
       </c>
       <c r="L46" s="4">
-        <v>0.14000000000000001</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="M46" s="4">
         <v>-30</v>
       </c>
       <c r="N46" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -3771,22 +4048,22 @@
         <v>42086</v>
       </c>
       <c r="C47" s="3">
-        <v>0.7284722222222223</v>
+        <v>0.67708333333333304</v>
       </c>
       <c r="D47" s="3">
-        <v>0.77013888888888893</v>
+        <v>0.71875</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G47" s="4">
-        <v>-0.38</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="H47" s="4">
-        <v>-0.38</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="I47" s="4">
         <v>0.01</v>
@@ -3798,16 +4075,19 @@
         <v>0</v>
       </c>
       <c r="L47" s="4">
-        <v>-5.5E-2</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="M47" s="4">
         <v>-30</v>
       </c>
       <c r="N47" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -3815,22 +4095,22 @@
         <v>42086</v>
       </c>
       <c r="C48" s="3">
-        <v>0.7284722222222223</v>
+        <v>0.72847222222222197</v>
       </c>
       <c r="D48" s="3">
-        <v>0.77013888888888893</v>
+        <v>0.77013888888888904</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G48" s="4">
-        <v>-0.375</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="H48" s="4">
-        <v>-0.375</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="I48" s="4">
         <v>0.01</v>
@@ -3842,27 +4122,30 @@
         <v>0</v>
       </c>
       <c r="L48" s="4">
-        <v>0.26</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="M48" s="4">
         <v>-30</v>
       </c>
       <c r="N48" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>6</v>
       </c>
       <c r="B49" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C49" s="3">
-        <v>0.72847222222222197</v>
+        <v>0.563194444444444</v>
       </c>
       <c r="D49" s="3">
-        <v>0.77013888888888904</v>
+        <v>0.60486111111111096</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>38</v>
@@ -3886,39 +4169,42 @@
         <v>0</v>
       </c>
       <c r="L49" s="4">
-        <v>-0.22500000000000001</v>
-      </c>
-      <c r="M49" s="4">
-        <v>-30</v>
+        <v>-0.21</v>
+      </c>
+      <c r="M49" s="5">
+        <v>0</v>
       </c>
       <c r="N49" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>6</v>
       </c>
       <c r="B50" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C50" s="3">
-        <v>0.72847222222222197</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="D50" s="3">
-        <v>0.77013888888888904</v>
+        <v>0.65277777777777801</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G50" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="H50" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="I50" s="4">
         <v>0.01</v>
@@ -3930,39 +4216,42 @@
         <v>0</v>
       </c>
       <c r="L50" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="M50" s="4">
-        <v>-30</v>
+        <v>-0.21</v>
+      </c>
+      <c r="M50" s="5">
+        <v>0</v>
       </c>
       <c r="N50" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="O50" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>6</v>
       </c>
       <c r="B51" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C51" s="3">
-        <v>0.72847222222222197</v>
+        <v>0.65902777777777799</v>
       </c>
       <c r="D51" s="3">
-        <v>0.77013888888888904</v>
+        <v>0.69027777777777799</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G51" s="4">
-        <v>-0.31</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="H51" s="4">
-        <v>-0.31</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="I51" s="4">
         <v>0.01</v>
@@ -3974,39 +4263,42 @@
         <v>0</v>
       </c>
       <c r="L51" s="4">
-        <v>-0.28499999999999998</v>
-      </c>
-      <c r="M51" s="4">
-        <v>-30</v>
+        <v>-0.21</v>
+      </c>
+      <c r="M51" s="5">
+        <v>0</v>
       </c>
       <c r="N51" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="O51" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>6</v>
       </c>
       <c r="B52" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C52" s="3">
-        <v>0.72847222222222197</v>
+        <v>0.7</v>
       </c>
       <c r="D52" s="3">
-        <v>0.77013888888888904</v>
+        <v>0.74166666666666703</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G52" s="4">
-        <v>-0.28000000000000003</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="H52" s="4">
-        <v>-0.28000000000000003</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="I52" s="4">
         <v>0.01</v>
@@ -4018,16 +4310,19 @@
         <v>0</v>
       </c>
       <c r="L52" s="4">
-        <v>0.31</v>
-      </c>
-      <c r="M52" s="4">
-        <v>-30</v>
+        <v>-0.21</v>
+      </c>
+      <c r="M52" s="5">
+        <v>0</v>
       </c>
       <c r="N52" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="O52" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -4035,22 +4330,22 @@
         <v>42086</v>
       </c>
       <c r="C53" s="3">
-        <v>0.72847222222222197</v>
+        <v>0.51944444444444404</v>
       </c>
       <c r="D53" s="3">
-        <v>0.77013888888888904</v>
+        <v>0.56111111111111101</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G53" s="4">
-        <v>-0.22</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="H53" s="4">
-        <v>-0.22</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="I53" s="4">
         <v>0.01</v>
@@ -4062,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="4">
-        <v>-0.115</v>
+        <v>0.09</v>
       </c>
       <c r="M53" s="4">
         <v>-30</v>
@@ -4070,8 +4365,11 @@
       <c r="N53" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="O53" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -4079,22 +4377,22 @@
         <v>42086</v>
       </c>
       <c r="C54" s="3">
-        <v>0.72847222222222197</v>
+        <v>0.57083333333333297</v>
       </c>
       <c r="D54" s="3">
-        <v>0.77013888888888904</v>
+        <v>0.60208333333333297</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G54" s="4">
-        <v>-0.15</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="H54" s="4">
-        <v>-0.15</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="I54" s="4">
         <v>0.01</v>
@@ -4106,148 +4404,160 @@
         <v>0</v>
       </c>
       <c r="L54" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="M54" s="4">
         <v>-30</v>
       </c>
       <c r="N54" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
         <v>6</v>
       </c>
       <c r="B55" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C55" s="3">
-        <v>0.48194444444444401</v>
+        <v>0.61944444444444446</v>
       </c>
       <c r="D55" s="3">
-        <v>0.74722222222222201</v>
+        <v>0.66111111111111109</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F55" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G55" s="4">
-        <v>0.32</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="H55" s="4">
-        <v>0.33</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="I55" s="4">
         <v>0.01</v>
       </c>
-      <c r="J55" s="4">
-        <v>0</v>
+      <c r="J55" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K55" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L55" s="5">
-        <v>-0.745</v>
+        <v>0</v>
+      </c>
+      <c r="L55" s="4">
+        <v>0.09</v>
       </c>
       <c r="M55" s="4">
         <v>-30</v>
       </c>
       <c r="N55" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>6</v>
       </c>
       <c r="B56" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C56" s="3">
-        <v>0.48194444444444401</v>
+        <v>0.67708333333333304</v>
       </c>
       <c r="D56" s="3">
-        <v>0.74722222222222201</v>
+        <v>0.71875</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F56" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G56" s="4">
-        <v>0.79</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="H56" s="4">
-        <v>0.78</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="I56" s="4">
         <v>0.01</v>
       </c>
-      <c r="J56" s="4">
-        <v>0</v>
+      <c r="J56" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K56" s="4">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="L56" s="4">
-        <v>-0.66500000000000004</v>
+        <v>0.09</v>
       </c>
       <c r="M56" s="4">
         <v>-30</v>
       </c>
       <c r="N56" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>6</v>
       </c>
       <c r="B57" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C57" s="3">
-        <v>0.48194444444444401</v>
+        <v>0.72847222222222197</v>
       </c>
       <c r="D57" s="3">
-        <v>0.74722222222222201</v>
+        <v>0.77013888888888904</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F57" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G57" s="4">
-        <v>0.99</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="H57" s="4">
-        <v>0.99</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="I57" s="4">
         <v>0.01</v>
       </c>
-      <c r="J57" s="4">
-        <v>0</v>
+      <c r="J57" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K57" s="4">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="L57" s="4">
-        <v>0.51</v>
+        <v>0.09</v>
       </c>
       <c r="M57" s="4">
         <v>-30</v>
       </c>
       <c r="N57" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -4255,43 +4565,46 @@
         <v>42087</v>
       </c>
       <c r="C58" s="3">
-        <v>0.48194444444444401</v>
+        <v>0.563194444444444</v>
       </c>
       <c r="D58" s="3">
-        <v>0.74722222222222201</v>
+        <v>0.60486111111111096</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G58" s="4">
-        <v>1.41</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="H58" s="4">
-        <v>1.4</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="I58" s="4">
         <v>0.01</v>
       </c>
-      <c r="J58" s="4">
-        <v>0</v>
+      <c r="J58" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K58" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L58" s="5">
-        <v>-0.745</v>
-      </c>
-      <c r="M58" s="4">
-        <v>-30</v>
+        <v>0</v>
+      </c>
+      <c r="L58" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="M58" s="5">
+        <v>0</v>
       </c>
       <c r="N58" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="O58" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -4299,43 +4612,46 @@
         <v>42087</v>
       </c>
       <c r="C59" s="3">
-        <v>0.48194444444444401</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="D59" s="3">
-        <v>0.74722222222222201</v>
+        <v>0.65277777777777801</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G59" s="4">
-        <v>2.08</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="H59" s="4">
-        <v>2.0699999999999998</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="I59" s="4">
         <v>0.01</v>
       </c>
-      <c r="J59" s="4">
-        <v>0</v>
+      <c r="J59" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K59" s="4">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="L59" s="4">
-        <v>0.51</v>
-      </c>
-      <c r="M59" s="4">
-        <v>-30</v>
+        <v>0.09</v>
+      </c>
+      <c r="M59" s="5">
+        <v>0</v>
       </c>
       <c r="N59" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:14">
+      <c r="O59" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -4343,43 +4659,46 @@
         <v>42087</v>
       </c>
       <c r="C60" s="3">
-        <v>0.48194444444444401</v>
+        <v>0.65902777777777799</v>
       </c>
       <c r="D60" s="3">
-        <v>0.74722222222222201</v>
+        <v>0.69027777777777799</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G60" s="4">
-        <v>2.4300000000000002</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="H60" s="4">
-        <v>2.42</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="I60" s="4">
         <v>0.01</v>
       </c>
-      <c r="J60" s="4">
-        <v>0</v>
+      <c r="J60" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K60" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L60" s="5">
-        <v>-0.745</v>
-      </c>
-      <c r="M60" s="4">
-        <v>-30</v>
+        <v>0</v>
+      </c>
+      <c r="L60" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="M60" s="5">
+        <v>0</v>
       </c>
       <c r="N60" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:14">
+      <c r="O60" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -4387,254 +4706,269 @@
         <v>42087</v>
       </c>
       <c r="C61" s="3">
-        <v>0.48194444444444445</v>
+        <v>0.7</v>
       </c>
       <c r="D61" s="3">
-        <v>0.74722222222222223</v>
+        <v>0.74166666666666703</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G61" s="4">
-        <v>0</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="H61" s="4">
-        <v>0</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="I61" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J61" t="s">
-        <v>14</v>
+        <v>0.01</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K61" s="4">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
       <c r="L61" s="4">
-        <v>0</v>
-      </c>
-      <c r="M61" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="M61" s="5">
         <v>0</v>
       </c>
       <c r="N61" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:14">
+      <c r="O61" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" t="s">
         <v>6</v>
       </c>
       <c r="B62" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C62" s="3">
-        <v>0.48194444444444401</v>
+        <v>0.51944444444444404</v>
       </c>
       <c r="D62" s="3">
-        <v>0.74722222222222201</v>
+        <v>0.56111111111111101</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G62" s="4">
-        <v>0</v>
+        <v>-0.31</v>
       </c>
       <c r="H62" s="4">
-        <v>0</v>
+        <v>-0.31</v>
       </c>
       <c r="I62" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J62" t="s">
+        <v>0.01</v>
+      </c>
+      <c r="J62" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K62" s="4">
         <v>0</v>
       </c>
       <c r="L62" s="4">
-        <v>0</v>
+        <v>-0.28499999999999998</v>
       </c>
       <c r="M62" s="4">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="N62" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:14">
+      <c r="O62" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" t="s">
         <v>6</v>
       </c>
       <c r="B63" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C63" s="3">
-        <v>0.48194444444444445</v>
+        <v>0.57083333333333297</v>
       </c>
       <c r="D63" s="3">
-        <v>0.74722222222222223</v>
+        <v>0.60208333333333297</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F63" t="s">
-        <v>3</v>
-      </c>
-      <c r="G63">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="H63">
-        <v>0.435</v>
+        <v>21</v>
+      </c>
+      <c r="G63" s="4">
+        <v>-0.31</v>
+      </c>
+      <c r="H63" s="4">
+        <v>-0.31</v>
       </c>
       <c r="I63" s="4">
         <v>0.01</v>
       </c>
-      <c r="J63" s="4">
-        <v>0</v>
+      <c r="J63" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K63" s="4">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L63" s="5">
-        <v>0.78</v>
+        <v>0</v>
+      </c>
+      <c r="L63" s="4">
+        <v>-0.28499999999999998</v>
       </c>
       <c r="M63" s="4">
         <v>-30</v>
       </c>
       <c r="N63" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" t="s">
         <v>6</v>
       </c>
       <c r="B64" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C64" s="3">
-        <v>0.48194444444444445</v>
+        <v>0.61944444444444446</v>
       </c>
       <c r="D64" s="3">
-        <v>0.74722222222222223</v>
+        <v>0.66111111111111109</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64">
-        <v>0.995</v>
-      </c>
-      <c r="H64">
-        <v>1.0049999999999999</v>
+        <v>21</v>
+      </c>
+      <c r="G64" s="4">
+        <v>-0.31</v>
+      </c>
+      <c r="H64" s="4">
+        <v>-0.31</v>
       </c>
       <c r="I64" s="4">
         <v>0.01</v>
       </c>
-      <c r="J64" s="4">
-        <v>0</v>
+      <c r="J64" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K64" s="4">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="L64" s="4">
-        <v>-0.15</v>
+        <v>-0.28499999999999998</v>
       </c>
       <c r="M64" s="4">
         <v>-30</v>
       </c>
       <c r="N64" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O64" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" t="s">
         <v>6</v>
       </c>
       <c r="B65" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C65" s="3">
-        <v>0.48194444444444445</v>
+        <v>0.67708333333333304</v>
       </c>
       <c r="D65" s="3">
-        <v>0.74722222222222223</v>
+        <v>0.71875</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65">
-        <v>1.7849999999999999</v>
-      </c>
-      <c r="H65">
-        <v>1.7949999999999999</v>
+        <v>21</v>
+      </c>
+      <c r="G65" s="4">
+        <v>-0.31</v>
+      </c>
+      <c r="H65" s="4">
+        <v>-0.31</v>
       </c>
       <c r="I65" s="4">
         <v>0.01</v>
       </c>
-      <c r="J65" s="4">
-        <v>0</v>
+      <c r="J65" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K65" s="4">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="L65" s="4">
-        <v>-0.15</v>
+        <v>-0.28499999999999998</v>
       </c>
       <c r="M65" s="4">
         <v>-30</v>
       </c>
       <c r="N65" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
         <v>6</v>
       </c>
       <c r="B66" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C66" s="3">
-        <v>0.48194444444444445</v>
+        <v>0.72847222222222197</v>
       </c>
       <c r="D66" s="3">
-        <v>0.74722222222222223</v>
+        <v>0.77013888888888904</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66">
-        <v>2.8050000000000002</v>
-      </c>
-      <c r="H66">
-        <v>2.8149999999999999</v>
+        <v>21</v>
+      </c>
+      <c r="G66" s="4">
+        <v>-0.31</v>
+      </c>
+      <c r="H66" s="4">
+        <v>-0.31</v>
       </c>
       <c r="I66" s="4">
         <v>0.01</v>
       </c>
-      <c r="J66" s="4">
-        <v>0</v>
+      <c r="J66" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K66" s="4">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="L66" s="4">
-        <v>-0.15</v>
+        <v>-0.28499999999999998</v>
       </c>
       <c r="M66" s="4">
         <v>-30</v>
@@ -4642,8 +4976,11 @@
       <c r="N66" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:14">
+      <c r="O66" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -4651,43 +4988,46 @@
         <v>42087</v>
       </c>
       <c r="C67" s="3">
-        <v>0.48194444444444445</v>
+        <v>0.563194444444444</v>
       </c>
       <c r="D67" s="3">
-        <v>0.74722222222222223</v>
+        <v>0.60486111111111096</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F67" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G67" s="4">
-        <v>0</v>
+        <v>-0.31</v>
       </c>
       <c r="H67" s="4">
-        <v>0</v>
+        <v>-0.31</v>
       </c>
       <c r="I67" s="4">
-        <v>0</v>
-      </c>
-      <c r="J67" s="4">
-        <v>0</v>
+        <v>0.01</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K67" s="4">
         <v>0</v>
       </c>
       <c r="L67" s="4">
-        <v>0</v>
-      </c>
-      <c r="M67" s="4">
-        <v>-30</v>
+        <v>-0.26</v>
+      </c>
+      <c r="M67" s="5">
+        <v>0</v>
       </c>
       <c r="N67" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:14">
+      <c r="O67" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -4695,22 +5035,22 @@
         <v>42087</v>
       </c>
       <c r="C68" s="3">
-        <v>0.56319444444444444</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="D68" s="3">
-        <v>0.60486111111111118</v>
+        <v>0.65277777777777801</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G68" s="4">
-        <v>-0.38</v>
+        <v>-0.31</v>
       </c>
       <c r="H68" s="4">
-        <v>-0.38</v>
+        <v>-0.31</v>
       </c>
       <c r="I68" s="4">
         <v>0.01</v>
@@ -4722,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="4">
-        <v>-0.04</v>
+        <v>-0.26</v>
       </c>
       <c r="M68" s="5">
         <v>0</v>
@@ -4730,8 +5070,11 @@
       <c r="N68" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:14">
+      <c r="O68" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -4739,22 +5082,22 @@
         <v>42087</v>
       </c>
       <c r="C69" s="3">
-        <v>0.56319444444444444</v>
+        <v>0.65902777777777799</v>
       </c>
       <c r="D69" s="3">
-        <v>0.60486111111111118</v>
+        <v>0.69027777777777799</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G69" s="4">
-        <v>-0.375</v>
+        <v>-0.31</v>
       </c>
       <c r="H69" s="4">
-        <v>-0.375</v>
+        <v>-0.31</v>
       </c>
       <c r="I69" s="4">
         <v>0.01</v>
@@ -4766,16 +5109,19 @@
         <v>0</v>
       </c>
       <c r="L69" s="4">
-        <v>0.26</v>
+        <v>-0.26</v>
       </c>
       <c r="M69" s="5">
         <v>0</v>
       </c>
       <c r="N69" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -4783,22 +5129,22 @@
         <v>42087</v>
       </c>
       <c r="C70" s="3">
-        <v>0.563194444444444</v>
+        <v>0.7</v>
       </c>
       <c r="D70" s="3">
-        <v>0.60486111111111096</v>
+        <v>0.74166666666666703</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G70" s="4">
-        <v>-0.36499999999999999</v>
+        <v>-0.31</v>
       </c>
       <c r="H70" s="4">
-        <v>-0.36499999999999999</v>
+        <v>-0.31</v>
       </c>
       <c r="I70" s="4">
         <v>0.01</v>
@@ -4810,39 +5156,42 @@
         <v>0</v>
       </c>
       <c r="L70" s="4">
-        <v>-0.21</v>
+        <v>-0.26</v>
       </c>
       <c r="M70" s="5">
         <v>0</v>
       </c>
       <c r="N70" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" t="s">
         <v>6</v>
       </c>
       <c r="B71" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C71" s="3">
-        <v>0.563194444444444</v>
+        <v>0.51944444444444404</v>
       </c>
       <c r="D71" s="3">
-        <v>0.60486111111111096</v>
+        <v>0.56111111111111101</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G71" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H71" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="I71" s="4">
         <v>0.01</v>
@@ -4854,39 +5203,42 @@
         <v>0</v>
       </c>
       <c r="L71" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="M71" s="5">
-        <v>0</v>
+        <v>0.31</v>
+      </c>
+      <c r="M71" s="4">
+        <v>-30</v>
       </c>
       <c r="N71" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:14">
+      <c r="O71" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" t="s">
         <v>6</v>
       </c>
       <c r="B72" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C72" s="3">
-        <v>0.563194444444444</v>
+        <v>0.57083333333333297</v>
       </c>
       <c r="D72" s="3">
-        <v>0.60486111111111096</v>
+        <v>0.60208333333333297</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G72" s="4">
-        <v>-0.31</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H72" s="4">
-        <v>-0.31</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="I72" s="4">
         <v>0.01</v>
@@ -4898,27 +5250,30 @@
         <v>0</v>
       </c>
       <c r="L72" s="4">
-        <v>-0.26</v>
-      </c>
-      <c r="M72" s="5">
-        <v>0</v>
+        <v>0.31</v>
+      </c>
+      <c r="M72" s="4">
+        <v>-30</v>
       </c>
       <c r="N72" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:14">
+      <c r="O72" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" t="s">
         <v>6</v>
       </c>
       <c r="B73" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C73" s="3">
-        <v>0.563194444444444</v>
+        <v>0.61944444444444446</v>
       </c>
       <c r="D73" s="3">
-        <v>0.60486111111111096</v>
+        <v>0.66111111111111109</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>38</v>
@@ -4944,37 +5299,40 @@
       <c r="L73" s="4">
         <v>0.31</v>
       </c>
-      <c r="M73" s="5">
-        <v>0</v>
+      <c r="M73" s="4">
+        <v>-30</v>
       </c>
       <c r="N73" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:14">
+      <c r="O73" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" t="s">
         <v>6</v>
       </c>
       <c r="B74" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C74" s="3">
-        <v>0.563194444444444</v>
+        <v>0.67708333333333304</v>
       </c>
       <c r="D74" s="3">
-        <v>0.60486111111111096</v>
+        <v>0.71875</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G74" s="4">
-        <v>-0.22</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H74" s="4">
-        <v>-0.22</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="I74" s="4">
         <v>0.01</v>
@@ -4986,39 +5344,42 @@
         <v>0</v>
       </c>
       <c r="L74" s="4">
-        <v>-0.09</v>
-      </c>
-      <c r="M74" s="5">
-        <v>0</v>
+        <v>0.31</v>
+      </c>
+      <c r="M74" s="4">
+        <v>-30</v>
       </c>
       <c r="N74" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:14">
+      <c r="O74" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" t="s">
         <v>6</v>
       </c>
       <c r="B75" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C75" s="3">
-        <v>0.563194444444444</v>
+        <v>0.72847222222222197</v>
       </c>
       <c r="D75" s="3">
-        <v>0.60486111111111096</v>
+        <v>0.77013888888888904</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G75" s="4">
-        <v>-0.15</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H75" s="4">
-        <v>-0.15</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="I75" s="4">
         <v>0.01</v>
@@ -5030,16 +5391,19 @@
         <v>0</v>
       </c>
       <c r="L75" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="M75" s="5">
-        <v>0</v>
+        <v>0.31</v>
+      </c>
+      <c r="M75" s="4">
+        <v>-30</v>
       </c>
       <c r="N75" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:14">
+      <c r="O75" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -5047,22 +5411,22 @@
         <v>42087</v>
       </c>
       <c r="C76" s="3">
-        <v>0.61111111111111105</v>
+        <v>0.563194444444444</v>
       </c>
       <c r="D76" s="3">
-        <v>0.65277777777777779</v>
+        <v>0.60486111111111096</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G76" s="4">
-        <v>-0.38</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H76" s="4">
-        <v>-0.38</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="I76" s="4">
         <v>0.01</v>
@@ -5074,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="4">
-        <v>-0.04</v>
+        <v>0.31</v>
       </c>
       <c r="M76" s="5">
         <v>0</v>
@@ -5082,8 +5446,11 @@
       <c r="N76" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:14">
+      <c r="O76" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -5094,19 +5461,19 @@
         <v>0.61111111111111105</v>
       </c>
       <c r="D77" s="3">
-        <v>0.65277777777777779</v>
+        <v>0.65277777777777801</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G77" s="4">
-        <v>-0.375</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H77" s="4">
-        <v>-0.375</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="I77" s="4">
         <v>0.01</v>
@@ -5118,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="4">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
       <c r="M77" s="5">
         <v>0</v>
@@ -5126,8 +5493,11 @@
       <c r="N77" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:14">
+      <c r="O77" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -5135,22 +5505,22 @@
         <v>42087</v>
       </c>
       <c r="C78" s="3">
-        <v>0.61111111111111105</v>
+        <v>0.65902777777777799</v>
       </c>
       <c r="D78" s="3">
-        <v>0.65277777777777801</v>
+        <v>0.69027777777777799</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G78" s="4">
-        <v>-0.36499999999999999</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H78" s="4">
-        <v>-0.36499999999999999</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="I78" s="4">
         <v>0.01</v>
@@ -5162,16 +5532,19 @@
         <v>0</v>
       </c>
       <c r="L78" s="4">
-        <v>-0.21</v>
+        <v>0.31</v>
       </c>
       <c r="M78" s="5">
         <v>0</v>
       </c>
       <c r="N78" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O78" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -5179,22 +5552,22 @@
         <v>42087</v>
       </c>
       <c r="C79" s="3">
-        <v>0.61111111111111105</v>
+        <v>0.7</v>
       </c>
       <c r="D79" s="3">
-        <v>0.65277777777777801</v>
+        <v>0.74166666666666703</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G79" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H79" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="I79" s="4">
         <v>0.01</v>
@@ -5206,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="L79" s="4">
-        <v>0.09</v>
+        <v>0.31</v>
       </c>
       <c r="M79" s="5">
         <v>0</v>
@@ -5214,31 +5587,34 @@
       <c r="N79" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:14">
+      <c r="O79" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" t="s">
         <v>6</v>
       </c>
       <c r="B80" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C80" s="3">
-        <v>0.61111111111111105</v>
+        <v>0.51944444444444404</v>
       </c>
       <c r="D80" s="3">
-        <v>0.65277777777777801</v>
+        <v>0.56111111111111101</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G80" s="4">
-        <v>-0.31</v>
+        <v>-0.22</v>
       </c>
       <c r="H80" s="4">
-        <v>-0.31</v>
+        <v>-0.22</v>
       </c>
       <c r="I80" s="4">
         <v>0.01</v>
@@ -5250,39 +5626,42 @@
         <v>0</v>
       </c>
       <c r="L80" s="4">
-        <v>-0.26</v>
-      </c>
-      <c r="M80" s="5">
-        <v>0</v>
+        <v>-0.115</v>
+      </c>
+      <c r="M80" s="4">
+        <v>-30</v>
       </c>
       <c r="N80" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:14">
+      <c r="O80" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" t="s">
         <v>6</v>
       </c>
       <c r="B81" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C81" s="3">
-        <v>0.61111111111111105</v>
+        <v>0.57083333333333297</v>
       </c>
       <c r="D81" s="3">
-        <v>0.65277777777777801</v>
+        <v>0.60208333333333297</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G81" s="4">
-        <v>-0.28000000000000003</v>
+        <v>-0.22</v>
       </c>
       <c r="H81" s="4">
-        <v>-0.28000000000000003</v>
+        <v>-0.22</v>
       </c>
       <c r="I81" s="4">
         <v>0.01</v>
@@ -5294,27 +5673,30 @@
         <v>0</v>
       </c>
       <c r="L81" s="4">
-        <v>0.31</v>
-      </c>
-      <c r="M81" s="5">
-        <v>0</v>
+        <v>-0.115</v>
+      </c>
+      <c r="M81" s="4">
+        <v>-30</v>
       </c>
       <c r="N81" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:14">
+      <c r="O81" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" t="s">
         <v>6</v>
       </c>
       <c r="B82" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C82" s="3">
-        <v>0.61111111111111105</v>
+        <v>0.61944444444444446</v>
       </c>
       <c r="D82" s="3">
-        <v>0.65277777777777801</v>
+        <v>0.66111111111111109</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>38</v>
@@ -5338,39 +5720,42 @@
         <v>0</v>
       </c>
       <c r="L82" s="4">
-        <v>-0.09</v>
-      </c>
-      <c r="M82" s="5">
-        <v>0</v>
+        <v>-0.115</v>
+      </c>
+      <c r="M82" s="4">
+        <v>-30</v>
       </c>
       <c r="N82" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:14">
+      <c r="O82" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" t="s">
         <v>6</v>
       </c>
       <c r="B83" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C83" s="3">
-        <v>0.61111111111111105</v>
+        <v>0.67708333333333304</v>
       </c>
       <c r="D83" s="3">
-        <v>0.65277777777777801</v>
+        <v>0.71875</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G83" s="4">
-        <v>-0.15</v>
+        <v>-0.22</v>
       </c>
       <c r="H83" s="4">
-        <v>-0.15</v>
+        <v>-0.22</v>
       </c>
       <c r="I83" s="4">
         <v>0.01</v>
@@ -5382,39 +5767,42 @@
         <v>0</v>
       </c>
       <c r="L83" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="M83" s="5">
-        <v>0</v>
+        <v>-0.115</v>
+      </c>
+      <c r="M83" s="4">
+        <v>-30</v>
       </c>
       <c r="N83" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:14">
+      <c r="O83" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84" t="s">
         <v>6</v>
       </c>
       <c r="B84" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C84" s="3">
-        <v>0.65902777777777777</v>
+        <v>0.72847222222222197</v>
       </c>
       <c r="D84" s="3">
-        <v>0.69027777777777777</v>
+        <v>0.77013888888888904</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G84" s="4">
-        <v>-0.38</v>
+        <v>-0.22</v>
       </c>
       <c r="H84" s="4">
-        <v>-0.38</v>
+        <v>-0.22</v>
       </c>
       <c r="I84" s="4">
         <v>0.01</v>
@@ -5426,16 +5814,19 @@
         <v>0</v>
       </c>
       <c r="L84" s="4">
-        <v>-0.04</v>
-      </c>
-      <c r="M84" s="5">
-        <v>0</v>
+        <v>-0.115</v>
+      </c>
+      <c r="M84" s="4">
+        <v>-30</v>
       </c>
       <c r="N84" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O84" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -5443,22 +5834,22 @@
         <v>42087</v>
       </c>
       <c r="C85" s="3">
-        <v>0.65902777777777777</v>
+        <v>0.563194444444444</v>
       </c>
       <c r="D85" s="3">
-        <v>0.69027777777777777</v>
+        <v>0.60486111111111096</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G85" s="4">
-        <v>-0.375</v>
+        <v>-0.22</v>
       </c>
       <c r="H85" s="4">
-        <v>-0.375</v>
+        <v>-0.22</v>
       </c>
       <c r="I85" s="4">
         <v>0.01</v>
@@ -5470,16 +5861,19 @@
         <v>0</v>
       </c>
       <c r="L85" s="4">
-        <v>0.26</v>
+        <v>-0.09</v>
       </c>
       <c r="M85" s="5">
         <v>0</v>
       </c>
       <c r="N85" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O85" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -5487,22 +5881,22 @@
         <v>42087</v>
       </c>
       <c r="C86" s="3">
-        <v>0.65902777777777799</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="D86" s="3">
-        <v>0.69027777777777799</v>
+        <v>0.65277777777777801</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G86" s="4">
-        <v>-0.36499999999999999</v>
+        <v>-0.22</v>
       </c>
       <c r="H86" s="4">
-        <v>-0.36499999999999999</v>
+        <v>-0.22</v>
       </c>
       <c r="I86" s="4">
         <v>0.01</v>
@@ -5514,16 +5908,19 @@
         <v>0</v>
       </c>
       <c r="L86" s="4">
-        <v>-0.21</v>
+        <v>-0.09</v>
       </c>
       <c r="M86" s="5">
         <v>0</v>
       </c>
       <c r="N86" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O86" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -5540,13 +5937,13 @@
         <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G87" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.22</v>
       </c>
       <c r="H87" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.22</v>
       </c>
       <c r="I87" s="4">
         <v>0.01</v>
@@ -5558,16 +5955,19 @@
         <v>0</v>
       </c>
       <c r="L87" s="4">
-        <v>0.09</v>
+        <v>-0.09</v>
       </c>
       <c r="M87" s="5">
         <v>0</v>
       </c>
       <c r="N87" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O87" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -5575,22 +5975,22 @@
         <v>42087</v>
       </c>
       <c r="C88" s="3">
-        <v>0.65902777777777799</v>
+        <v>0.7</v>
       </c>
       <c r="D88" s="3">
-        <v>0.69027777777777799</v>
+        <v>0.74166666666666703</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G88" s="4">
-        <v>-0.31</v>
+        <v>-0.22</v>
       </c>
       <c r="H88" s="4">
-        <v>-0.31</v>
+        <v>-0.22</v>
       </c>
       <c r="I88" s="4">
         <v>0.01</v>
@@ -5602,39 +6002,42 @@
         <v>0</v>
       </c>
       <c r="L88" s="4">
-        <v>-0.26</v>
+        <v>-0.09</v>
       </c>
       <c r="M88" s="5">
         <v>0</v>
       </c>
       <c r="N88" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O88" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89" t="s">
         <v>6</v>
       </c>
       <c r="B89" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C89" s="3">
-        <v>0.65902777777777799</v>
+        <v>0.51944444444444404</v>
       </c>
       <c r="D89" s="3">
-        <v>0.69027777777777799</v>
+        <v>0.56111111111111101</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F89" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G89" s="4">
-        <v>-0.28000000000000003</v>
+        <v>-0.15</v>
       </c>
       <c r="H89" s="4">
-        <v>-0.28000000000000003</v>
+        <v>-0.15</v>
       </c>
       <c r="I89" s="4">
         <v>0.01</v>
@@ -5646,39 +6049,42 @@
         <v>0</v>
       </c>
       <c r="L89" s="4">
-        <v>0.31</v>
-      </c>
-      <c r="M89" s="5">
-        <v>0</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M89" s="4">
+        <v>-30</v>
       </c>
       <c r="N89" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:14">
+      <c r="O89" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90" t="s">
         <v>6</v>
       </c>
       <c r="B90" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C90" s="3">
-        <v>0.65902777777777799</v>
+        <v>0.57083333333333297</v>
       </c>
       <c r="D90" s="3">
-        <v>0.69027777777777799</v>
+        <v>0.60208333333333297</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G90" s="4">
-        <v>-0.22</v>
+        <v>-0.15</v>
       </c>
       <c r="H90" s="4">
-        <v>-0.22</v>
+        <v>-0.15</v>
       </c>
       <c r="I90" s="4">
         <v>0.01</v>
@@ -5690,27 +6096,30 @@
         <v>0</v>
       </c>
       <c r="L90" s="4">
-        <v>-0.09</v>
-      </c>
-      <c r="M90" s="5">
-        <v>0</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M90" s="4">
+        <v>-30</v>
       </c>
       <c r="N90" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:14">
+      <c r="O90" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" t="s">
         <v>6</v>
       </c>
       <c r="B91" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C91" s="3">
-        <v>0.65902777777777799</v>
+        <v>0.61944444444444446</v>
       </c>
       <c r="D91" s="3">
-        <v>0.69027777777777799</v>
+        <v>0.66111111111111109</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>38</v>
@@ -5736,37 +6145,40 @@
       <c r="L91" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M91" s="5">
-        <v>0</v>
+      <c r="M91" s="4">
+        <v>-30</v>
       </c>
       <c r="N91" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:14">
+      <c r="O91" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92" t="s">
         <v>6</v>
       </c>
       <c r="B92" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C92" s="3">
-        <v>0.70000000000000007</v>
+        <v>0.67708333333333304</v>
       </c>
       <c r="D92" s="3">
-        <v>0.7416666666666667</v>
+        <v>0.71875</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G92" s="4">
-        <v>-0.38</v>
+        <v>-0.15</v>
       </c>
       <c r="H92" s="4">
-        <v>-0.38</v>
+        <v>-0.15</v>
       </c>
       <c r="I92" s="4">
         <v>0.01</v>
@@ -5778,39 +6190,42 @@
         <v>0</v>
       </c>
       <c r="L92" s="4">
-        <v>-0.04</v>
-      </c>
-      <c r="M92" s="5">
-        <v>0</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M92" s="4">
+        <v>-30</v>
       </c>
       <c r="N92" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:14">
+      <c r="O92" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93" t="s">
         <v>6</v>
       </c>
       <c r="B93" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C93" s="3">
-        <v>0.70000000000000007</v>
+        <v>0.72847222222222197</v>
       </c>
       <c r="D93" s="3">
-        <v>0.7416666666666667</v>
+        <v>0.77013888888888904</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G93" s="4">
-        <v>-0.375</v>
+        <v>-0.15</v>
       </c>
       <c r="H93" s="4">
-        <v>-0.375</v>
+        <v>-0.15</v>
       </c>
       <c r="I93" s="4">
         <v>0.01</v>
@@ -5822,16 +6237,19 @@
         <v>0</v>
       </c>
       <c r="L93" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="M93" s="5">
-        <v>0</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M93" s="4">
+        <v>-30</v>
       </c>
       <c r="N93" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:14">
+      <c r="O93" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -5839,22 +6257,22 @@
         <v>42087</v>
       </c>
       <c r="C94" s="3">
-        <v>0.7</v>
+        <v>0.563194444444444</v>
       </c>
       <c r="D94" s="3">
-        <v>0.74166666666666703</v>
+        <v>0.60486111111111096</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G94" s="4">
-        <v>-0.36499999999999999</v>
+        <v>-0.15</v>
       </c>
       <c r="H94" s="4">
-        <v>-0.36499999999999999</v>
+        <v>-0.15</v>
       </c>
       <c r="I94" s="4">
         <v>0.01</v>
@@ -5866,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="L94" s="4">
-        <v>-0.21</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M94" s="5">
         <v>0</v>
@@ -5874,8 +6292,11 @@
       <c r="N94" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:14">
+      <c r="O94" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -5883,22 +6304,22 @@
         <v>42087</v>
       </c>
       <c r="C95" s="3">
-        <v>0.7</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="D95" s="3">
-        <v>0.74166666666666703</v>
+        <v>0.65277777777777801</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G95" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.15</v>
       </c>
       <c r="H95" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.15</v>
       </c>
       <c r="I95" s="4">
         <v>0.01</v>
@@ -5910,7 +6331,7 @@
         <v>0</v>
       </c>
       <c r="L95" s="4">
-        <v>0.09</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M95" s="5">
         <v>0</v>
@@ -5918,8 +6339,11 @@
       <c r="N95" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:14">
+      <c r="O95" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -5927,22 +6351,22 @@
         <v>42087</v>
       </c>
       <c r="C96" s="3">
-        <v>0.7</v>
+        <v>0.65902777777777799</v>
       </c>
       <c r="D96" s="3">
-        <v>0.74166666666666703</v>
+        <v>0.69027777777777799</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G96" s="4">
-        <v>-0.31</v>
+        <v>-0.15</v>
       </c>
       <c r="H96" s="4">
-        <v>-0.31</v>
+        <v>-0.15</v>
       </c>
       <c r="I96" s="4">
         <v>0.01</v>
@@ -5954,16 +6378,19 @@
         <v>0</v>
       </c>
       <c r="L96" s="4">
-        <v>-0.26</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M96" s="5">
         <v>0</v>
       </c>
       <c r="N96" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O96" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -5980,13 +6407,13 @@
         <v>38</v>
       </c>
       <c r="F97" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G97" s="4">
-        <v>-0.28000000000000003</v>
+        <v>-0.15</v>
       </c>
       <c r="H97" s="4">
-        <v>-0.28000000000000003</v>
+        <v>-0.15</v>
       </c>
       <c r="I97" s="4">
         <v>0.01</v>
@@ -5998,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="L97" s="4">
-        <v>0.31</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M97" s="5">
         <v>0</v>
@@ -6006,52 +6433,58 @@
       <c r="N97" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:14">
+      <c r="O97" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98" t="s">
         <v>6</v>
       </c>
       <c r="B98" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C98" s="3">
-        <v>0.7</v>
+        <v>0.499305555555556</v>
       </c>
       <c r="D98" s="3">
-        <v>0.74166666666666703</v>
+        <v>0.77638888888888902</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F98" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G98" s="4">
-        <v>-0.22</v>
+        <v>0</v>
       </c>
       <c r="H98" s="4">
-        <v>-0.22</v>
+        <v>0</v>
       </c>
       <c r="I98" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J98" s="4" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J98" s="4">
+        <v>0</v>
       </c>
       <c r="K98" s="4">
         <v>0</v>
       </c>
       <c r="L98" s="4">
-        <v>-0.09</v>
-      </c>
-      <c r="M98" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M98" s="4">
+        <v>-30</v>
       </c>
       <c r="N98" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:14">
+      <c r="O98">
+        <v>43282163</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -6059,47 +6492,50 @@
         <v>42087</v>
       </c>
       <c r="C99" s="3">
-        <v>0.7</v>
+        <v>0.48194444444444445</v>
       </c>
       <c r="D99" s="3">
-        <v>0.74166666666666703</v>
+        <v>0.74722222222222223</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F99" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G99" s="4">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="H99" s="4">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="I99" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J99" s="4" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J99" s="4">
+        <v>0</v>
       </c>
       <c r="K99" s="4">
         <v>0</v>
       </c>
       <c r="L99" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="M99" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M99" s="4">
+        <v>-30</v>
       </c>
       <c r="N99" s="4">
         <v>0</v>
       </c>
+      <c r="O99">
+        <v>43282163</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K267">
-    <sortCondition ref="B2:B267"/>
-    <sortCondition ref="C2:C267"/>
-    <sortCondition ref="F2:F267"/>
+  <sortState ref="A2:O99">
+    <sortCondition ref="F2:F99"/>
+    <sortCondition ref="B2:B99"/>
+    <sortCondition ref="C2:C99"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
